--- a/Data/Data.xlsx
+++ b/Data/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="728"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="728" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Transects" sheetId="4" r:id="rId1"/>
@@ -177,7 +177,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="198">
   <si>
     <t>Heliotropium</t>
   </si>
@@ -206,9 +206,6 @@
     <t>Laguncularia</t>
   </si>
   <si>
-    <t>Scaevola Egragropilas</t>
-  </si>
-  <si>
     <t>Hibiscus</t>
   </si>
   <si>
@@ -710,9 +707,6 @@
     <t>empty_sunk_t21d</t>
   </si>
   <si>
-    <t>Scaevola pellets</t>
-  </si>
-  <si>
     <t>Fernandina (P)</t>
   </si>
   <si>
@@ -774,6 +768,21 @@
   </si>
   <si>
     <t>%float_t21d</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Scaevola </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pellets</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1296,7 +1305,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
@@ -1313,34 +1322,34 @@
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="D2" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="33" t="s">
         <v>163</v>
-      </c>
-      <c r="C2" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" s="33" t="s">
-        <v>164</v>
       </c>
       <c r="F2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E3" s="3">
         <v>200</v>
@@ -1348,14 +1357,14 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="35"/>
       <c r="C4" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E4" s="3">
         <v>200</v>
@@ -1363,14 +1372,14 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="35"/>
       <c r="C5" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E5" s="3">
         <v>200</v>
@@ -1378,14 +1387,14 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="35"/>
       <c r="C6" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E6" s="3">
         <v>200</v>
@@ -1393,14 +1402,14 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="35"/>
       <c r="C7" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E7" s="3">
         <v>200</v>
@@ -1408,14 +1417,14 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="35"/>
       <c r="C8" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E8" s="3">
         <v>100</v>
@@ -1423,14 +1432,14 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9" s="35"/>
       <c r="C9" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E9" s="3">
         <v>200</v>
@@ -1438,14 +1447,14 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" s="35"/>
       <c r="C10" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E10" s="3">
         <v>200</v>
@@ -1453,14 +1462,14 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B11" s="35"/>
       <c r="C11" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E11" s="3">
         <v>200</v>
@@ -1468,14 +1477,14 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B12" s="35"/>
       <c r="C12" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E12" s="3">
         <v>200</v>
@@ -1483,14 +1492,14 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B13" s="35"/>
       <c r="C13" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E13" s="3">
         <v>200</v>
@@ -1498,14 +1507,14 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B14" s="35"/>
       <c r="C14" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E14" s="3">
         <v>200</v>
@@ -1513,16 +1522,16 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B15" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E15" s="3">
         <v>200</v>
@@ -1530,14 +1539,14 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B16" s="35"/>
       <c r="C16" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E16" s="3">
         <v>200</v>
@@ -1545,14 +1554,14 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B17" s="35"/>
       <c r="C17" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E17" s="3">
         <v>200</v>
@@ -1560,14 +1569,14 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B18" s="35"/>
       <c r="C18" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E18" s="3">
         <v>200</v>
@@ -1575,14 +1584,14 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B19" s="35"/>
       <c r="C19" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E19" s="3">
         <v>200</v>
@@ -1590,16 +1599,16 @@
     </row>
     <row r="20" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E20" s="3">
         <v>200</v>
@@ -1607,14 +1616,14 @@
     </row>
     <row r="21" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B21" s="35"/>
       <c r="C21" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E21" s="3">
         <v>200</v>
@@ -1622,14 +1631,14 @@
     </row>
     <row r="22" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B22" s="35"/>
       <c r="C22" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E22" s="3">
         <v>200</v>
@@ -1637,14 +1646,14 @@
     </row>
     <row r="23" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B23" s="35"/>
       <c r="C23" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E23" s="3">
         <v>100</v>
@@ -1652,14 +1661,14 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B24" s="35"/>
       <c r="C24" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E24" s="3">
         <v>200</v>
@@ -1669,7 +1678,7 @@
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D25" s="13"/>
       <c r="E25" s="13"/>
@@ -1708,7 +1717,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1722,39 +1731,39 @@
     </row>
     <row r="2" spans="1:10" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B2" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="D2" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="D2" s="33" t="s">
-        <v>103</v>
-      </c>
       <c r="E2" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="F2" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="G2" s="33" t="s">
         <v>166</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="H2" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="I2" s="33" t="s">
         <v>168</v>
       </c>
-      <c r="I2" s="33" t="s">
+      <c r="J2" s="33" t="s">
         <v>169</v>
-      </c>
-      <c r="J2" s="33" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="3">
         <v>20</v>
@@ -1849,7 +1858,7 @@
     </row>
     <row r="6" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="3">
         <v>20</v>
@@ -2006,7 +2015,7 @@
     </row>
     <row r="11" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="3">
         <v>20</v>
@@ -2041,7 +2050,7 @@
     </row>
     <row r="12" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B12" s="3">
         <v>20</v>
@@ -2111,7 +2120,7 @@
     </row>
     <row r="14" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>9</v>
+        <v>197</v>
       </c>
       <c r="B14" s="3">
         <v>20</v>
@@ -2143,7 +2152,7 @@
     </row>
     <row r="15" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15" s="3">
         <v>19</v>
@@ -2169,7 +2178,7 @@
     </row>
     <row r="16" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B16" s="3">
         <v>20</v>
@@ -2254,7 +2263,7 @@
     </row>
     <row r="19" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B19" s="3">
         <v>20</v>
@@ -2289,7 +2298,7 @@
     </row>
     <row r="20" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B20" s="3">
         <v>20</v>
@@ -2324,7 +2333,7 @@
     </row>
     <row r="21" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B21" s="14">
         <v>20</v>
@@ -2379,8 +2388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Z25"/>
   <sheetViews>
-    <sheetView zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2413,76 +2422,76 @@
   <sheetData>
     <row r="2" spans="1:26" s="11" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="E2" s="34" t="s">
         <v>188</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="F2" s="33" t="s">
         <v>189</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="G2" s="33" t="s">
         <v>190</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="H2" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="I2" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="J2" s="33" t="s">
         <v>191</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="K2" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="H2" s="33" t="s">
-        <v>171</v>
-      </c>
-      <c r="I2" s="34" t="s">
+      <c r="L2" s="33" t="s">
+        <v>193</v>
+      </c>
+      <c r="M2" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="N2" s="33" t="s">
         <v>172</v>
       </c>
-      <c r="J2" s="33" t="s">
-        <v>193</v>
-      </c>
-      <c r="K2" s="33" t="s">
-        <v>194</v>
-      </c>
-      <c r="L2" s="33" t="s">
+      <c r="O2" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="P2" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="M2" s="33" t="s">
+      <c r="Q2" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="N2" s="33" t="s">
-        <v>173</v>
-      </c>
-      <c r="O2" s="33" t="s">
+      <c r="R2" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="S2" s="33" t="s">
         <v>174</v>
       </c>
-      <c r="P2" s="33" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q2" s="33" t="s">
-        <v>198</v>
-      </c>
-      <c r="R2" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="S2" s="33" t="s">
+      <c r="T2" s="33" t="s">
         <v>175</v>
       </c>
-      <c r="T2" s="33" t="s">
-        <v>176</v>
-      </c>
       <c r="U2" s="33" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="Z2" s="20"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" s="3">
         <v>200</v>
@@ -2542,7 +2551,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" s="3">
         <v>200</v>
@@ -2607,7 +2616,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" s="3">
         <v>200</v>
@@ -2669,10 +2678,10 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="3">
         <v>200</v>
@@ -2735,10 +2744,10 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="3">
         <v>200</v>
@@ -2800,10 +2809,10 @@
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" s="3">
         <v>200</v>
@@ -2868,7 +2877,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" s="3">
         <v>200</v>
@@ -2924,10 +2933,10 @@
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="3">
         <v>200</v>
@@ -2981,7 +2990,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" s="3">
         <v>200</v>
@@ -3038,10 +3047,10 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C12" s="3">
         <v>150</v>
@@ -3089,10 +3098,10 @@
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C13" s="3">
         <v>20</v>
@@ -3140,10 +3149,10 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="3">
         <v>200</v>
@@ -3206,10 +3215,10 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" s="3">
         <v>100</v>
@@ -3275,7 +3284,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" s="3">
         <v>200</v>
@@ -3337,10 +3346,10 @@
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" s="3">
         <v>200</v>
@@ -3402,10 +3411,10 @@
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" s="3">
         <v>390</v>
@@ -3461,10 +3470,10 @@
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19" s="3">
         <v>200</v>
@@ -3529,7 +3538,7 @@
         <v>6</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C20" s="3">
         <v>200</v>
@@ -3591,10 +3600,10 @@
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21" s="3">
         <v>448</v>
@@ -3656,10 +3665,10 @@
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C22" s="3">
         <v>52</v>
@@ -3706,10 +3715,10 @@
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C23" s="3">
         <v>100</v>
@@ -3756,10 +3765,10 @@
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="C24" s="3">
         <v>200</v>
@@ -3809,10 +3818,10 @@
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C25" s="14">
         <v>200</v>
@@ -3910,69 +3919,69 @@
   <sheetData>
     <row r="2" spans="1:20" s="25" customFormat="1" ht="73.5" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B2" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="D2" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="E2" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="F2" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="G2" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="H2" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="I2" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="J2" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="K2" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="L2" s="31" t="s">
         <v>178</v>
       </c>
-      <c r="G2" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="H2" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="I2" s="31" t="s">
+      <c r="M2" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="N2" s="31" t="s">
         <v>179</v>
       </c>
-      <c r="J2" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="K2" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="L2" s="31" t="s">
+      <c r="O2" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="M2" s="31" t="s">
-        <v>112</v>
-      </c>
-      <c r="N2" s="31" t="s">
+      <c r="P2" s="31" t="s">
         <v>181</v>
       </c>
-      <c r="O2" s="31" t="s">
+      <c r="Q2" s="32" t="s">
         <v>182</v>
-      </c>
-      <c r="P2" s="31" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q2" s="32" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="B3" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>120</v>
-      </c>
       <c r="D3" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E3" s="3">
         <v>1</v>
@@ -4005,7 +4014,7 @@
         <v>1</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="R3" s="3"/>
       <c r="S3" s="3"/>
@@ -4013,16 +4022,16 @@
     </row>
     <row r="4" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="B4" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>125</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I4" s="3">
         <v>1</v>
@@ -4031,7 +4040,7 @@
         <v>1</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="R4" s="3"/>
       <c r="S4" s="3"/>
@@ -4039,16 +4048,16 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B5" s="27" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E5" s="3">
         <v>1</v>
@@ -4081,7 +4090,7 @@
         <v>1</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
@@ -4089,16 +4098,16 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="B6" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="27" t="s">
-        <v>129</v>
-      </c>
       <c r="D6" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E6" s="3">
         <v>1</v>
@@ -4125,7 +4134,7 @@
         <v>1</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
@@ -4133,16 +4142,16 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="B7" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="27" t="s">
-        <v>132</v>
-      </c>
       <c r="D7" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E7" s="3">
         <v>1</v>
@@ -4175,7 +4184,7 @@
         <v>1</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
@@ -4183,16 +4192,16 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G8" s="3">
         <v>1</v>
@@ -4207,7 +4216,7 @@
         <v>1</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
@@ -4215,16 +4224,16 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G9" s="3">
         <v>1</v>
@@ -4242,7 +4251,7 @@
         <v>1</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
@@ -4250,16 +4259,16 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="B10" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>136</v>
-      </c>
       <c r="D10" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F10" s="3">
         <v>1</v>
@@ -4283,7 +4292,7 @@
         <v>1</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
@@ -4291,16 +4300,16 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B11" s="27" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F11" s="3">
         <v>1</v>
@@ -4327,7 +4336,7 @@
         <v>1</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
@@ -4335,16 +4344,16 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E12" s="3">
         <v>1</v>
@@ -4371,7 +4380,7 @@
         <v>1</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
@@ -4379,16 +4388,16 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B13" s="27" t="s">
         <v>2</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E13" s="3">
         <v>1</v>
@@ -4418,7 +4427,7 @@
         <v>1</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
@@ -4426,16 +4435,16 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G14" s="3">
         <v>1</v>
@@ -4450,7 +4459,7 @@
         <v>1</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
@@ -4458,16 +4467,16 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="B15" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="27" t="s">
-        <v>143</v>
-      </c>
       <c r="D15" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E15" s="3">
         <v>1</v>
@@ -4506,7 +4515,7 @@
         <v>1</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
@@ -4514,16 +4523,16 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E16" s="3">
         <v>1</v>
@@ -4553,7 +4562,7 @@
         <v>1</v>
       </c>
       <c r="Q16" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
@@ -4561,16 +4570,16 @@
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="B17" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="27" t="s">
-        <v>146</v>
-      </c>
       <c r="D17" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E17" s="3">
         <v>1</v>
@@ -4603,7 +4612,7 @@
         <v>1</v>
       </c>
       <c r="Q17" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
@@ -4611,16 +4620,16 @@
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="B18" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="27" t="s">
-        <v>148</v>
-      </c>
       <c r="D18" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G18" s="3">
         <v>1</v>
@@ -4635,7 +4644,7 @@
         <v>1</v>
       </c>
       <c r="Q18" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
@@ -4643,16 +4652,16 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="B19" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="27" t="s">
-        <v>127</v>
-      </c>
       <c r="D19" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F19" s="3">
         <v>1</v>
@@ -4685,7 +4694,7 @@
         <v>1</v>
       </c>
       <c r="Q19" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
@@ -4693,16 +4702,16 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B20" s="27" t="s">
         <v>6</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E20" s="3">
         <v>1</v>
@@ -4735,7 +4744,7 @@
         <v>1</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
@@ -4743,16 +4752,16 @@
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="B21" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="29" t="s">
-        <v>150</v>
-      </c>
       <c r="D21" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E21" s="14">
         <v>1</v>
@@ -4783,7 +4792,7 @@
         <v>1</v>
       </c>
       <c r="Q21" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>

--- a/Data/Data.xlsx
+++ b/Data/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="728" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="728" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Transects" sheetId="4" r:id="rId1"/>
@@ -59,7 +59,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Autor:</t>
         </r>
@@ -68,7 +68,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Float_t33 - empty_extracted_t33
@@ -108,7 +108,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Autor:</t>
         </r>
@@ -117,7 +117,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 floating_t1 - extracted_ t1</t>
@@ -132,7 +132,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Autor:</t>
         </r>
@@ -141,7 +141,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 float_t21 - empty_extracted_t21</t>
@@ -177,7 +177,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="195">
   <si>
     <t>Heliotropium</t>
   </si>
@@ -312,15 +312,6 @@
   </si>
   <si>
     <t>Grouped fruits</t>
-  </si>
-  <si>
-    <t>Conocarpus</t>
-  </si>
-  <si>
-    <t>Grouped seeds (balls)</t>
-  </si>
-  <si>
-    <t>seeds</t>
   </si>
   <si>
     <t>Transect 12</t>
@@ -789,7 +780,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -825,19 +816,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color theme="1"/>
@@ -863,15 +841,6 @@
       <b/>
       <i/>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -932,7 +901,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -950,13 +919,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -968,7 +937,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -977,13 +946,13 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -992,32 +961,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1321,20 +1284,20 @@
       <c r="E1" s="10"/>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="33" t="s">
-        <v>162</v>
-      </c>
-      <c r="C2" s="33" t="s">
+      <c r="B2" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="33" t="s">
-        <v>163</v>
+      <c r="D2" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>160</v>
       </c>
       <c r="F2"/>
     </row>
@@ -1342,14 +1305,14 @@
       <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="35" t="s">
-        <v>159</v>
+      <c r="B3" s="33" t="s">
+        <v>156</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E3" s="3">
         <v>200</v>
@@ -1359,12 +1322,12 @@
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="35"/>
+      <c r="B4" s="33"/>
       <c r="C4" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E4" s="3">
         <v>200</v>
@@ -1374,12 +1337,12 @@
       <c r="A5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="35"/>
+      <c r="B5" s="33"/>
       <c r="C5" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E5" s="3">
         <v>200</v>
@@ -1389,12 +1352,12 @@
       <c r="A6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="35"/>
+      <c r="B6" s="33"/>
       <c r="C6" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E6" s="3">
         <v>200</v>
@@ -1404,12 +1367,12 @@
       <c r="A7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="35"/>
+      <c r="B7" s="33"/>
       <c r="C7" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E7" s="3">
         <v>200</v>
@@ -1419,12 +1382,12 @@
       <c r="A8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="35"/>
+      <c r="B8" s="33"/>
       <c r="C8" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E8" s="3">
         <v>100</v>
@@ -1434,12 +1397,12 @@
       <c r="A9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="35"/>
+      <c r="B9" s="33"/>
       <c r="C9" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E9" s="3">
         <v>200</v>
@@ -1449,12 +1412,12 @@
       <c r="A10" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="35"/>
+      <c r="B10" s="33"/>
       <c r="C10" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E10" s="3">
         <v>200</v>
@@ -1464,12 +1427,12 @@
       <c r="A11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="35"/>
+      <c r="B11" s="33"/>
       <c r="C11" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E11" s="3">
         <v>200</v>
@@ -1479,12 +1442,12 @@
       <c r="A12" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="35"/>
+      <c r="B12" s="33"/>
       <c r="C12" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E12" s="3">
         <v>200</v>
@@ -1494,12 +1457,12 @@
       <c r="A13" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="35"/>
+      <c r="B13" s="33"/>
       <c r="C13" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E13" s="3">
         <v>200</v>
@@ -1507,14 +1470,14 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="35"/>
+        <v>45</v>
+      </c>
+      <c r="B14" s="33"/>
       <c r="C14" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E14" s="3">
         <v>200</v>
@@ -1522,16 +1485,16 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" s="35" t="s">
-        <v>161</v>
+        <v>48</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>158</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E15" s="3">
         <v>200</v>
@@ -1539,14 +1502,14 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" s="35"/>
+        <v>49</v>
+      </c>
+      <c r="B16" s="33"/>
       <c r="C16" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E16" s="3">
         <v>200</v>
@@ -1554,14 +1517,14 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17" s="35"/>
+        <v>50</v>
+      </c>
+      <c r="B17" s="33"/>
       <c r="C17" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E17" s="3">
         <v>200</v>
@@ -1569,14 +1532,14 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18" s="35"/>
+        <v>51</v>
+      </c>
+      <c r="B18" s="33"/>
       <c r="C18" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E18" s="3">
         <v>200</v>
@@ -1584,14 +1547,14 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B19" s="35"/>
+        <v>66</v>
+      </c>
+      <c r="B19" s="33"/>
       <c r="C19" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E19" s="3">
         <v>200</v>
@@ -1599,16 +1562,16 @@
     </row>
     <row r="20" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B20" s="35" t="s">
-        <v>160</v>
+        <v>67</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>157</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E20" s="3">
         <v>200</v>
@@ -1616,14 +1579,14 @@
     </row>
     <row r="21" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B21" s="35"/>
+        <v>68</v>
+      </c>
+      <c r="B21" s="33"/>
       <c r="C21" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E21" s="3">
         <v>200</v>
@@ -1631,14 +1594,14 @@
     </row>
     <row r="22" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B22" s="35"/>
+        <v>69</v>
+      </c>
+      <c r="B22" s="33"/>
       <c r="C22" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E22" s="3">
         <v>200</v>
@@ -1646,14 +1609,14 @@
     </row>
     <row r="23" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B23" s="35"/>
+        <v>71</v>
+      </c>
+      <c r="B23" s="33"/>
       <c r="C23" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E23" s="3">
         <v>100</v>
@@ -1661,14 +1624,14 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B24" s="35"/>
+        <v>153</v>
+      </c>
+      <c r="B24" s="33"/>
       <c r="C24" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E24" s="3">
         <v>200</v>
@@ -1730,35 +1693,35 @@
       <c r="A1" s="9"/>
     </row>
     <row r="2" spans="1:10" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="D2" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="E2" s="33" t="s">
+      <c r="A2" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="H2" s="31" t="s">
         <v>164</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="I2" s="31" t="s">
         <v>165</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="J2" s="31" t="s">
         <v>166</v>
-      </c>
-      <c r="H2" s="33" t="s">
-        <v>167</v>
-      </c>
-      <c r="I2" s="33" t="s">
-        <v>168</v>
-      </c>
-      <c r="J2" s="33" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2120,7 +2083,7 @@
     </row>
     <row r="14" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B14" s="3">
         <v>20</v>
@@ -2263,7 +2226,7 @@
     </row>
     <row r="19" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B19" s="3">
         <v>20</v>
@@ -2333,7 +2296,7 @@
     </row>
     <row r="21" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B21" s="14">
         <v>20</v>
@@ -2386,10 +2349,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:Z25"/>
+  <dimension ref="A2:Z23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2421,68 +2384,68 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:26" s="11" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="F2" s="31" t="s">
         <v>186</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="G2" s="31" t="s">
         <v>187</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="H2" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="J2" s="31" t="s">
         <v>188</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="K2" s="31" t="s">
         <v>189</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="L2" s="31" t="s">
         <v>190</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="M2" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="N2" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="O2" s="31" t="s">
         <v>170</v>
       </c>
-      <c r="I2" s="34" t="s">
+      <c r="P2" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q2" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="R2" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="S2" s="31" t="s">
         <v>171</v>
       </c>
-      <c r="J2" s="33" t="s">
-        <v>191</v>
-      </c>
-      <c r="K2" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="L2" s="33" t="s">
-        <v>193</v>
-      </c>
-      <c r="M2" s="33" t="s">
-        <v>194</v>
-      </c>
-      <c r="N2" s="33" t="s">
+      <c r="T2" s="31" t="s">
         <v>172</v>
       </c>
-      <c r="O2" s="33" t="s">
-        <v>173</v>
-      </c>
-      <c r="P2" s="33" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q2" s="33" t="s">
-        <v>196</v>
-      </c>
-      <c r="R2" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="S2" s="33" t="s">
-        <v>174</v>
-      </c>
-      <c r="T2" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="U2" s="33" t="s">
-        <v>183</v>
+      <c r="U2" s="31" t="s">
+        <v>180</v>
       </c>
       <c r="Z2" s="20"/>
     </row>
@@ -3346,7 +3309,7 @@
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B17" s="21" t="s">
         <v>25</v>
@@ -3600,7 +3563,7 @@
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>26</v>
@@ -3665,7 +3628,7 @@
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>26</v>
@@ -3714,166 +3677,57 @@
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="14">
         <v>100</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="14">
         <v>100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="14">
         <v>100</v>
       </c>
-      <c r="F23" s="16">
-        <v>1</v>
-      </c>
-      <c r="G23" s="3">
+      <c r="F23" s="19">
+        <v>1</v>
+      </c>
+      <c r="G23" s="14">
         <v>84</v>
       </c>
-      <c r="J23" s="3">
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14">
         <v>84</v>
       </c>
-      <c r="K23" s="16">
+      <c r="K23" s="19">
         <v>0.84</v>
       </c>
-      <c r="M23" s="3">
+      <c r="L23" s="14"/>
+      <c r="M23" s="14">
         <v>38</v>
       </c>
-      <c r="P23" s="3">
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14">
         <v>23</v>
       </c>
-      <c r="Q23" s="16">
+      <c r="Q23" s="19">
         <v>0.23</v>
       </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
-      <c r="T23" s="7">
-        <v>0</v>
-      </c>
-      <c r="U23" s="3">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A24" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="3">
-        <v>200</v>
-      </c>
-      <c r="D24" s="3">
-        <v>200</v>
-      </c>
-      <c r="E24" s="3">
-        <v>200</v>
-      </c>
-      <c r="F24" s="16">
-        <v>1</v>
-      </c>
-      <c r="G24" s="3">
-        <v>200</v>
-      </c>
-      <c r="J24" s="3">
-        <v>200</v>
-      </c>
-      <c r="K24" s="16">
-        <v>1</v>
-      </c>
-      <c r="L24" s="3">
-        <v>200</v>
-      </c>
-      <c r="M24" s="3">
-        <v>200</v>
-      </c>
-      <c r="P24" s="3">
-        <v>200</v>
-      </c>
-      <c r="Q24" s="16">
-        <v>1</v>
-      </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
-      <c r="T24" s="7">
-        <v>0</v>
-      </c>
-      <c r="U24" s="3">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A25" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" s="14">
-        <v>200</v>
-      </c>
-      <c r="D25" s="14">
-        <v>200</v>
-      </c>
-      <c r="E25" s="14">
-        <v>200</v>
-      </c>
-      <c r="F25" s="19">
-        <v>1</v>
-      </c>
-      <c r="G25" s="14">
-        <v>200</v>
-      </c>
-      <c r="H25" s="14">
-        <v>0</v>
-      </c>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14">
-        <v>200</v>
-      </c>
-      <c r="K25" s="19">
-        <v>1</v>
-      </c>
-      <c r="L25" s="14">
-        <v>200</v>
-      </c>
-      <c r="M25" s="14">
-        <v>200</v>
-      </c>
-      <c r="N25" s="14">
-        <v>0</v>
-      </c>
-      <c r="O25" s="14"/>
-      <c r="P25" s="14">
-        <v>200</v>
-      </c>
-      <c r="Q25" s="19">
-        <v>1</v>
-      </c>
-      <c r="R25" s="14">
-        <v>0</v>
-      </c>
-      <c r="S25" s="14">
-        <v>0</v>
-      </c>
-      <c r="T25" s="14">
-        <v>0</v>
-      </c>
-      <c r="U25" s="14">
+      <c r="R23" s="14">
+        <v>0</v>
+      </c>
+      <c r="S23" s="14">
+        <v>0</v>
+      </c>
+      <c r="T23" s="14">
+        <v>0</v>
+      </c>
+      <c r="U23" s="14">
         <v>499</v>
       </c>
     </row>
@@ -3891,7 +3745,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:T21"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
       <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
@@ -3917,71 +3771,71 @@
     <col min="21" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20" s="25" customFormat="1" ht="73.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="B2" s="30" t="s">
+    <row r="2" spans="1:20" s="23" customFormat="1" ht="73.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="F2" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="G2" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="H2" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="I2" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="J2" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="K2" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="L2" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="M2" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="N2" s="29" t="s">
         <v>176</v>
       </c>
-      <c r="G2" s="31" t="s">
-        <v>107</v>
-      </c>
-      <c r="H2" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="I2" s="31" t="s">
+      <c r="O2" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="J2" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="K2" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="L2" s="31" t="s">
+      <c r="P2" s="29" t="s">
         <v>178</v>
       </c>
-      <c r="M2" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="N2" s="31" t="s">
+      <c r="Q2" s="30" t="s">
         <v>179</v>
       </c>
-      <c r="O2" s="31" t="s">
-        <v>180</v>
-      </c>
-      <c r="P2" s="31" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q2" s="32" t="s">
-        <v>182</v>
-      </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="B3" s="27" t="s">
+      <c r="A3" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="27" t="s">
-        <v>119</v>
+      <c r="C3" s="25" t="s">
+        <v>116</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E3" s="3">
         <v>1</v>
@@ -4014,24 +3868,24 @@
         <v>1</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="R3" s="3"/>
       <c r="S3" s="3"/>
       <c r="T3" s="3"/>
     </row>
     <row r="4" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
-        <v>123</v>
-      </c>
-      <c r="B4" s="27" t="s">
+      <c r="A4" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="27" t="s">
-        <v>124</v>
+      <c r="C4" s="25" t="s">
+        <v>121</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I4" s="3">
         <v>1</v>
@@ -4040,24 +3894,24 @@
         <v>1</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="R4" s="3"/>
       <c r="S4" s="3"/>
       <c r="T4" s="3"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="B5" s="27" t="s">
+      <c r="A5" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B5" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="27" t="s">
-        <v>126</v>
+      <c r="C5" s="25" t="s">
+        <v>123</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E5" s="3">
         <v>1</v>
@@ -4090,24 +3944,24 @@
         <v>1</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="B6" s="27" t="s">
+      <c r="A6" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="27" t="s">
-        <v>128</v>
+      <c r="C6" s="25" t="s">
+        <v>125</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E6" s="3">
         <v>1</v>
@@ -4134,24 +3988,24 @@
         <v>1</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="27" t="s">
-        <v>131</v>
+      <c r="A7" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>128</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E7" s="3">
         <v>1</v>
@@ -4184,24 +4038,24 @@
         <v>1</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="B8" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>132</v>
-      </c>
       <c r="D8" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G8" s="3">
         <v>1</v>
@@ -4216,24 +4070,24 @@
         <v>1</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="B9" s="27" t="s">
+      <c r="A9" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="B9" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="27" t="s">
-        <v>133</v>
+      <c r="C9" s="25" t="s">
+        <v>130</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G9" s="3">
         <v>1</v>
@@ -4251,24 +4105,24 @@
         <v>1</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="26" t="s">
-        <v>134</v>
-      </c>
-      <c r="B10" s="27" t="s">
+      <c r="A10" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="B10" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="27" t="s">
-        <v>135</v>
+      <c r="C10" s="25" t="s">
+        <v>132</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F10" s="3">
         <v>1</v>
@@ -4292,24 +4146,24 @@
         <v>1</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="B11" s="27" t="s">
+      <c r="A11" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="27" t="s">
-        <v>136</v>
+      <c r="C11" s="25" t="s">
+        <v>133</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F11" s="3">
         <v>1</v>
@@ -4336,24 +4190,24 @@
         <v>1</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="B12" s="27" t="s">
+      <c r="A12" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="B12" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="27" t="s">
-        <v>137</v>
+      <c r="C12" s="25" t="s">
+        <v>134</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E12" s="3">
         <v>1</v>
@@ -4380,24 +4234,24 @@
         <v>1</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="B13" s="27" t="s">
+      <c r="A13" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="B13" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="27" t="s">
-        <v>139</v>
+      <c r="C13" s="25" t="s">
+        <v>136</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E13" s="3">
         <v>1</v>
@@ -4427,24 +4281,24 @@
         <v>1</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="B14" s="27" t="s">
+      <c r="A14" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="B14" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="27" t="s">
-        <v>140</v>
+      <c r="C14" s="25" t="s">
+        <v>137</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G14" s="3">
         <v>1</v>
@@ -4459,24 +4313,24 @@
         <v>1</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="B15" s="27" t="s">
+      <c r="A15" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="B15" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="27" t="s">
-        <v>142</v>
+      <c r="C15" s="25" t="s">
+        <v>139</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E15" s="3">
         <v>1</v>
@@ -4515,24 +4369,24 @@
         <v>1</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="B16" s="27" t="s">
+      <c r="A16" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="B16" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="27" t="s">
-        <v>143</v>
+      <c r="C16" s="25" t="s">
+        <v>140</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E16" s="3">
         <v>1</v>
@@ -4562,24 +4416,24 @@
         <v>1</v>
       </c>
       <c r="Q16" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="26" t="s">
-        <v>144</v>
-      </c>
-      <c r="B17" s="27" t="s">
+      <c r="A17" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="B17" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="27" t="s">
-        <v>145</v>
+      <c r="C17" s="25" t="s">
+        <v>142</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E17" s="3">
         <v>1</v>
@@ -4612,24 +4466,24 @@
         <v>1</v>
       </c>
       <c r="Q17" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="B18" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="27" t="s">
-        <v>147</v>
+      <c r="A18" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>144</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G18" s="3">
         <v>1</v>
@@ -4644,24 +4498,24 @@
         <v>1</v>
       </c>
       <c r="Q18" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="B19" s="27" t="s">
+      <c r="A19" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B19" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="27" t="s">
-        <v>126</v>
+      <c r="C19" s="25" t="s">
+        <v>123</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F19" s="3">
         <v>1</v>
@@ -4694,24 +4548,24 @@
         <v>1</v>
       </c>
       <c r="Q19" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="B20" s="27" t="s">
+      <c r="A20" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B20" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="27" t="s">
-        <v>126</v>
+      <c r="C20" s="25" t="s">
+        <v>123</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E20" s="3">
         <v>1</v>
@@ -4744,24 +4598,24 @@
         <v>1</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="28" t="s">
-        <v>148</v>
-      </c>
-      <c r="B21" s="29" t="s">
+      <c r="A21" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="B21" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="29" t="s">
-        <v>149</v>
+      <c r="C21" s="27" t="s">
+        <v>146</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E21" s="14">
         <v>1</v>
@@ -4792,7 +4646,7 @@
         <v>1</v>
       </c>
       <c r="Q21" s="14" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
